--- a/spring/math108/homework/excel/hw1/excel_hw1.xlsx
+++ b/spring/math108/homework/excel/hw1/excel_hw1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebmcwhorter/Documents/GitHub/stac_temp/spring/math108/homework/excel/hw1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2CB4877E-73EB-B04F-8BBE-06F92D248B26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA54D3ED-D062-5845-A84A-7926CC04CCC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="500" windowWidth="27980" windowHeight="16940" xr2:uid="{2F4CB041-83FF-874F-8DB9-4D552E3F52F2}"/>
   </bookViews>
@@ -20,14 +20,6 @@
     <sheet name="Problem 4" sheetId="5" r:id="rId5"/>
     <sheet name="Problem 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Problem 3'!$A$1:$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Problem 3'!$A$2:$B$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Problem 3'!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Problem 3'!$A$1:$B$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Problem 3'!$A$2:$B$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Problem 3'!$A$3:$B$3</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -320,39 +312,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -361,10 +323,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,40 +673,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C82F939-1806-3840-A2A6-22B938566212}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="8.5" style="17"/>
+    <col min="1" max="16384" width="7.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="10"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
@@ -727,76 +719,76 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
@@ -804,61 +796,61 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="F16" s="9" t="s">
+      <c r="D16" s="22"/>
+      <c r="F16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -875,45 +867,45 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7" t="s">
@@ -921,210 +913,210 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="7" t="s">
@@ -1132,42 +1124,42 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="G66" s="8" t="s">
+      <c r="E66" s="18"/>
+      <c r="G66" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="8"/>
+      <c r="H66" s="22"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="G69" s="14" t="s">
+      <c r="E69" s="18"/>
+      <c r="G69" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="14"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7" t="s">
@@ -1207,31 +1199,25 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="C47:J49"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C60:J62"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B7:J9"/>
+    <mergeCell ref="B11:J13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B31:C31"/>
@@ -1242,12 +1228,18 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="D22:J23"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="B7:J9"/>
-    <mergeCell ref="B11:J13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C47:J49"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C60:J62"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G70:H70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1622,7 +1614,7 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1644,7 +1636,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1655,7 +1647,7 @@
         <v>216.31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1666,7 +1658,7 @@
         <v>217.62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1677,7 +1669,7 @@
         <v>218.93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1688,7 +1680,7 @@
         <v>220.24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1699,7 +1691,7 @@
         <v>221.55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1710,7 +1702,7 @@
         <v>222.86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1721,7 +1713,7 @@
         <v>224.17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1732,7 +1724,7 @@
         <v>225.48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1743,7 +1735,7 @@
         <v>226.79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1754,7 +1746,7 @@
         <v>228.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1765,7 +1757,7 @@
         <v>229.41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1776,7 +1768,7 @@
         <v>230.72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1787,7 +1779,7 @@
         <v>232.03</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1798,7 +1790,7 @@
         <v>233.34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1809,7 +1801,7 @@
         <v>234.65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1820,7 +1812,7 @@
         <v>235.96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1831,7 +1823,7 @@
         <v>237.27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1842,7 +1834,7 @@
         <v>238.58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1853,7 +1845,7 @@
         <v>239.89</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1864,7 +1856,7 @@
         <v>241.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1875,7 +1867,7 @@
         <v>242.51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1886,7 +1878,7 @@
         <v>243.82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1897,7 +1889,7 @@
         <v>245.13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1908,7 +1900,7 @@
         <v>246.44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1919,7 +1911,7 @@
         <v>247.75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1930,7 +1922,7 @@
         <v>249.06</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1941,7 +1933,7 @@
         <v>250.37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1952,7 +1944,7 @@
         <v>251.68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1963,7 +1955,7 @@
         <v>252.99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1974,7 +1966,7 @@
         <v>254.3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1985,7 +1977,7 @@
         <v>255.61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1996,7 +1988,7 @@
         <v>256.92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2007,7 +1999,7 @@
         <v>258.23</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2018,7 +2010,7 @@
         <v>259.54000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2029,7 +2021,7 @@
         <v>260.85000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
